--- a/Postmortem_Individuell.xlsx
+++ b/Postmortem_Individuell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pontus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pontus.fredriksson3\Desktop\Engine\Pontus-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4E87B-7A61-47F1-AC6C-E03BD437E5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4541F-B831-4382-A487-BE53818438DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUKTIONER" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -201,12 +201,6 @@
     <t>Animations are implemented in the engine</t>
   </si>
   <si>
-    <t>Engine supports animation blending</t>
-  </si>
-  <si>
-    <t>The engine has a state machine editor for animations</t>
-  </si>
-  <si>
     <t>There are environmental shadows</t>
   </si>
   <si>
@@ -238,6 +232,27 @@
   </si>
   <si>
     <t>There is a way to load levels from UE</t>
+  </si>
+  <si>
+    <t>There is a boss existing in a level</t>
+  </si>
+  <si>
+    <t>There is debris circulating  the boss arena</t>
+  </si>
+  <si>
+    <t>The boss can clam into the gorund</t>
+  </si>
+  <si>
+    <t>The boss can swipe the platform</t>
+  </si>
+  <si>
+    <t>There are occasionally falling debris landing on the boss platform</t>
+  </si>
+  <si>
+    <t>The boss can screech and slow the player movement</t>
+  </si>
+  <si>
+    <t>The boss is animated with code</t>
   </si>
 </sst>
 </file>
@@ -15271,7 +15286,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
@@ -15282,7 +15297,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
@@ -15296,7 +15311,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -15370,7 +15385,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -15381,7 +15396,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -15395,7 +15410,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
@@ -15406,7 +15421,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>9</v>
@@ -15420,7 +15435,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -15434,7 +15449,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -15445,7 +15460,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -15459,7 +15474,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -15478,15 +15493,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
@@ -15538,23 +15553,72 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15753,21 +15817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010085E4D63DDE733B488749940057332055" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="d252482899d44fbb06faf218191789ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7076b759-64f9-493b-80a3-c67fb42cc6a0" xmlns:ns3="bb8a861d-32e4-4cd9-94d8-3f519c6ddddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4412345afef64a9cf235d17c277e8ba" ns2:_="" ns3:_="">
     <xsd:import namespace="7076b759-64f9-493b-80a3-c67fb42cc6a0"/>
@@ -15984,24 +16033,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9641EF-E64E-4894-A575-3550C028C7A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16018,4 +16065,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Postmortem_Individuell.xlsx
+++ b/Postmortem_Individuell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pontus.fredriksson3\Desktop\Engine\Pontus-Engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pontus\Documents\GitHub\Pontus-Engine\Pontus-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4541F-B831-4382-A487-BE53818438DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82935225-BD1D-43D1-A5DF-C21967896E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="3615" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUKTIONER" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -240,9 +240,6 @@
     <t>There is debris circulating  the boss arena</t>
   </si>
   <si>
-    <t>The boss can clam into the gorund</t>
-  </si>
-  <si>
     <t>The boss can swipe the platform</t>
   </si>
   <si>
@@ -252,7 +249,58 @@
     <t>The boss can screech and slow the player movement</t>
   </si>
   <si>
-    <t>The boss is animated with code</t>
+    <t>The boss can clam into the ground</t>
+  </si>
+  <si>
+    <t>Spelaren upplever att det är bra flow på navigeringen</t>
+  </si>
+  <si>
+    <t>The player experiences a correctly placed and rotated camera</t>
+  </si>
+  <si>
+    <t>Ability 3 - Spelaren kan skjuta iväg en sten mesh</t>
+  </si>
+  <si>
+    <t>Ability 1 - Spelaren kan dra in fiender</t>
+  </si>
+  <si>
+    <t>Spelaren kan attackera fiender</t>
+  </si>
+  <si>
+    <t>Spelaren kan ta skada</t>
+  </si>
+  <si>
+    <t>Spelaren kan dö och återuppstå (respawn)</t>
+  </si>
+  <si>
+    <t>Spelaren kan plocka upp health globes som återställer health</t>
+  </si>
+  <si>
+    <t>Spelaren upplever en animation när man interagerar med ett objekt.</t>
+  </si>
+  <si>
+    <t>Spelaren upplever en run animation när man rör på sig.</t>
+  </si>
+  <si>
+    <t>Spelaren upplever en idle animation när man står still.</t>
+  </si>
+  <si>
+    <t>Spelaren upplever en death animation när man dör.</t>
+  </si>
+  <si>
+    <t>LMB - Spelaren kan exekvera en 3-stegs kombo (Jab, kick, sweep).</t>
+  </si>
+  <si>
+    <t>Ability 2 - Spelaren kan göra skada i en cirkel runtom sig.</t>
+  </si>
+  <si>
+    <t>Ability 4 - Spelaren kan använda sin ultimate ability.</t>
+  </si>
+  <si>
+    <t>Spelarens Hastighet stämmer överens med metrics i Diablo 3.</t>
+  </si>
+  <si>
+    <t>Spelaren upplever en kamera med rätt avstånd, låst till spelaren i relation till Diablo 3.</t>
   </si>
 </sst>
 </file>
@@ -15495,8 +15543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15580,37 +15628,64 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -15618,7 +15693,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -15628,18 +15706,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="1" max="1" width="77.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -15667,6 +15745,149 @@
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15817,6 +16038,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010085E4D63DDE733B488749940057332055" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="d252482899d44fbb06faf218191789ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7076b759-64f9-493b-80a3-c67fb42cc6a0" xmlns:ns3="bb8a861d-32e4-4cd9-94d8-3f519c6ddddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4412345afef64a9cf235d17c277e8ba" ns2:_="" ns3:_="">
     <xsd:import namespace="7076b759-64f9-493b-80a3-c67fb42cc6a0"/>
@@ -16033,22 +16269,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9641EF-E64E-4894-A575-3550C028C7A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16065,21 +16303,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Postmortem_Individuell.xlsx
+++ b/Postmortem_Individuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pontus\Documents\GitHub\Pontus-Engine\Pontus-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82935225-BD1D-43D1-A5DF-C21967896E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A98D3-167C-4B03-AD03-BCF95E670E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3615" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUKTIONER" sheetId="8" r:id="rId1"/>
@@ -15709,7 +15709,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15833,6 +15833,9 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -15841,6 +15844,9 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -15849,6 +15855,9 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -15857,6 +15866,12 @@
       <c r="B14" s="2">
         <v>5</v>
       </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -15865,6 +15880,12 @@
       <c r="B15" s="2">
         <v>5</v>
       </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -15873,20 +15894,32 @@
       <c r="B16" s="2">
         <v>5</v>
       </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -16038,21 +16071,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010085E4D63DDE733B488749940057332055" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="d252482899d44fbb06faf218191789ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7076b759-64f9-493b-80a3-c67fb42cc6a0" xmlns:ns3="bb8a861d-32e4-4cd9-94d8-3f519c6ddddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4412345afef64a9cf235d17c277e8ba" ns2:_="" ns3:_="">
     <xsd:import namespace="7076b759-64f9-493b-80a3-c67fb42cc6a0"/>
@@ -16269,24 +16287,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9641EF-E64E-4894-A575-3550C028C7A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16303,4 +16319,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9F7BA6-8C09-4701-8B0C-455BCF7E5FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DDA1E6-C1EA-4D9E-BEEE-DC80F323398A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>